--- a/branches/Specimen-resource-dev--FIG-48/all-profiles.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:50:17+00:00</t>
+    <t>2023-02-14T08:50:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/all-profiles.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21004" uniqueCount="1727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21003" uniqueCount="1726">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:50:38+00:00</t>
+    <t>2023-02-14T14:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2778,7 +2778,7 @@
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-enrollment-type</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-patient-enrollment-type</t>
   </si>
   <si>
     <t>EpisodeOfCare.diagnosis</t>
@@ -4982,10 +4982,7 @@
     <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
   </si>
   <si>
-    <t>The type of the specimen.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-specimen-type</t>
   </si>
   <si>
     <t>Specimen.subject</t>
@@ -7317,7 +7314,7 @@
         <v>2</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="237">
@@ -7325,7 +7322,7 @@
         <v>4</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="238">
@@ -7341,7 +7338,7 @@
         <v>8</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="240">
@@ -7349,7 +7346,7 @@
         <v>10</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="241">
@@ -7403,7 +7400,7 @@
         <v>23</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="248">
@@ -7479,7 +7476,7 @@
         <v>2</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="258">
@@ -7487,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="259">
@@ -7503,7 +7500,7 @@
         <v>8</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="261">
@@ -7511,7 +7508,7 @@
         <v>10</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="262">
@@ -7565,7 +7562,7 @@
         <v>23</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="269">
@@ -29026,10 +29023,10 @@
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>78</v>
@@ -38550,7 +38547,7 @@
         <v>83</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I295" t="s" s="2">
         <v>78</v>
@@ -55989,7 +55986,7 @@
       </c>
       <c r="F461" s="2"/>
       <c r="G461" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H461" t="s" s="2">
         <v>83</v>
@@ -56039,13 +56036,11 @@
         <v>78</v>
       </c>
       <c r="Y461" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Z461" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z461" s="2"/>
+      <c r="AA461" t="s" s="2">
         <v>1601</v>
-      </c>
-      <c r="AA461" t="s" s="2">
-        <v>1602</v>
       </c>
       <c r="AB461" t="s" s="2">
         <v>78</v>
@@ -56083,10 +56078,10 @@
         <v>1569</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -56109,17 +56104,17 @@
         <v>84</v>
       </c>
       <c r="L462" t="s" s="2">
+        <v>1603</v>
+      </c>
+      <c r="M462" t="s" s="2">
         <v>1604</v>
       </c>
-      <c r="M462" t="s" s="2">
+      <c r="N462" t="s" s="2">
         <v>1605</v>
-      </c>
-      <c r="N462" t="s" s="2">
-        <v>1606</v>
       </c>
       <c r="O462" s="2"/>
       <c r="P462" t="s" s="2">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="Q462" t="s" s="2">
         <v>78</v>
@@ -56168,7 +56163,7 @@
         <v>78</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>76</v>
@@ -56188,10 +56183,10 @@
         <v>1569</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -56217,10 +56212,10 @@
         <v>218</v>
       </c>
       <c r="M463" t="s" s="2">
+        <v>1608</v>
+      </c>
+      <c r="N463" t="s" s="2">
         <v>1609</v>
-      </c>
-      <c r="N463" t="s" s="2">
-        <v>1610</v>
       </c>
       <c r="O463" s="2"/>
       <c r="P463" s="2"/>
@@ -56271,7 +56266,7 @@
         <v>78</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>76</v>
@@ -56291,10 +56286,10 @@
         <v>1569</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -56320,13 +56315,13 @@
         <v>1471</v>
       </c>
       <c r="M464" t="s" s="2">
+        <v>1611</v>
+      </c>
+      <c r="N464" t="s" s="2">
         <v>1612</v>
       </c>
-      <c r="N464" t="s" s="2">
+      <c r="O464" t="s" s="2">
         <v>1613</v>
-      </c>
-      <c r="O464" t="s" s="2">
-        <v>1614</v>
       </c>
       <c r="P464" s="2"/>
       <c r="Q464" t="s" s="2">
@@ -56376,7 +56371,7 @@
         <v>78</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>76</v>
@@ -56396,10 +56391,10 @@
         <v>1569</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
@@ -56425,13 +56420,13 @@
         <v>919</v>
       </c>
       <c r="M465" t="s" s="2">
+        <v>1615</v>
+      </c>
+      <c r="N465" t="s" s="2">
         <v>1616</v>
       </c>
-      <c r="N465" t="s" s="2">
+      <c r="O465" t="s" s="2">
         <v>1617</v>
-      </c>
-      <c r="O465" t="s" s="2">
-        <v>1618</v>
       </c>
       <c r="P465" s="2"/>
       <c r="Q465" t="s" s="2">
@@ -56481,7 +56476,7 @@
         <v>78</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>76</v>
@@ -56501,10 +56496,10 @@
         <v>1569</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -56530,10 +56525,10 @@
         <v>254</v>
       </c>
       <c r="M466" t="s" s="2">
+        <v>1619</v>
+      </c>
+      <c r="N466" t="s" s="2">
         <v>1620</v>
-      </c>
-      <c r="N466" t="s" s="2">
-        <v>1621</v>
       </c>
       <c r="O466" s="2"/>
       <c r="P466" s="2"/>
@@ -56584,7 +56579,7 @@
         <v>78</v>
       </c>
       <c r="AG466" t="s" s="2">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="AH466" t="s" s="2">
         <v>76</v>
@@ -56604,10 +56599,10 @@
         <v>1569</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -56707,10 +56702,10 @@
         <v>1569</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -56812,10 +56807,10 @@
         <v>1569</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -56919,10 +56914,10 @@
         <v>1569</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -56948,10 +56943,10 @@
         <v>923</v>
       </c>
       <c r="M470" t="s" s="2">
+        <v>1625</v>
+      </c>
+      <c r="N470" t="s" s="2">
         <v>1626</v>
-      </c>
-      <c r="N470" t="s" s="2">
-        <v>1627</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
@@ -57002,7 +56997,7 @@
         <v>78</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>76</v>
@@ -57022,10 +57017,10 @@
         <v>1569</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -57051,10 +57046,10 @@
         <v>218</v>
       </c>
       <c r="M471" t="s" s="2">
+        <v>1628</v>
+      </c>
+      <c r="N471" t="s" s="2">
         <v>1629</v>
-      </c>
-      <c r="N471" t="s" s="2">
-        <v>1630</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" s="2"/>
@@ -57103,7 +57098,7 @@
         <v>385</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>76</v>
@@ -57123,13 +57118,13 @@
         <v>1569</v>
       </c>
       <c r="B472" t="s" s="2">
+        <v>1630</v>
+      </c>
+      <c r="C472" t="s" s="2">
+        <v>1627</v>
+      </c>
+      <c r="D472" t="s" s="2">
         <v>1631</v>
-      </c>
-      <c r="C472" t="s" s="2">
-        <v>1628</v>
-      </c>
-      <c r="D472" t="s" s="2">
-        <v>1632</v>
       </c>
       <c r="E472" t="s" s="2">
         <v>78</v>
@@ -57154,10 +57149,10 @@
         <v>218</v>
       </c>
       <c r="M472" t="s" s="2">
+        <v>1628</v>
+      </c>
+      <c r="N472" t="s" s="2">
         <v>1629</v>
-      </c>
-      <c r="N472" t="s" s="2">
-        <v>1630</v>
       </c>
       <c r="O472" s="2"/>
       <c r="P472" s="2"/>
@@ -57208,7 +57203,7 @@
         <v>78</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="AH472" t="s" s="2">
         <v>76</v>
@@ -57228,10 +57223,10 @@
         <v>1569</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -57257,10 +57252,10 @@
         <v>1226</v>
       </c>
       <c r="M473" t="s" s="2">
+        <v>1633</v>
+      </c>
+      <c r="N473" t="s" s="2">
         <v>1634</v>
-      </c>
-      <c r="N473" t="s" s="2">
-        <v>1635</v>
       </c>
       <c r="O473" s="2"/>
       <c r="P473" s="2"/>
@@ -57311,7 +57306,7 @@
         <v>78</v>
       </c>
       <c r="AG473" t="s" s="2">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="AH473" t="s" s="2">
         <v>76</v>
@@ -57331,10 +57326,10 @@
         <v>1569</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
@@ -57360,10 +57355,10 @@
         <v>390</v>
       </c>
       <c r="M474" t="s" s="2">
+        <v>1636</v>
+      </c>
+      <c r="N474" t="s" s="2">
         <v>1637</v>
-      </c>
-      <c r="N474" t="s" s="2">
-        <v>1638</v>
       </c>
       <c r="O474" s="2"/>
       <c r="P474" s="2"/>
@@ -57414,7 +57409,7 @@
         <v>78</v>
       </c>
       <c r="AG474" t="s" s="2">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AH474" t="s" s="2">
         <v>76</v>
@@ -57434,10 +57429,10 @@
         <v>1569</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
@@ -57463,10 +57458,10 @@
         <v>183</v>
       </c>
       <c r="M475" t="s" s="2">
+        <v>1639</v>
+      </c>
+      <c r="N475" t="s" s="2">
         <v>1640</v>
-      </c>
-      <c r="N475" t="s" s="2">
-        <v>1641</v>
       </c>
       <c r="O475" s="2"/>
       <c r="P475" s="2"/>
@@ -57496,11 +57491,11 @@
         <v>188</v>
       </c>
       <c r="Z475" t="s" s="2">
+        <v>1641</v>
+      </c>
+      <c r="AA475" t="s" s="2">
         <v>1642</v>
       </c>
-      <c r="AA475" t="s" s="2">
-        <v>1643</v>
-      </c>
       <c r="AB475" t="s" s="2">
         <v>78</v>
       </c>
@@ -57517,7 +57512,7 @@
         <v>78</v>
       </c>
       <c r="AG475" t="s" s="2">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="AH475" t="s" s="2">
         <v>76</v>
@@ -57537,10 +57532,10 @@
         <v>1569</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -57566,13 +57561,13 @@
         <v>183</v>
       </c>
       <c r="M476" t="s" s="2">
+        <v>1644</v>
+      </c>
+      <c r="N476" t="s" s="2">
         <v>1645</v>
       </c>
-      <c r="N476" t="s" s="2">
+      <c r="O476" t="s" s="2">
         <v>1646</v>
-      </c>
-      <c r="O476" t="s" s="2">
-        <v>1647</v>
       </c>
       <c r="P476" s="2"/>
       <c r="Q476" t="s" s="2">
@@ -57622,7 +57617,7 @@
         <v>78</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="AH476" t="s" s="2">
         <v>76</v>
@@ -57642,10 +57637,10 @@
         <v>1569</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -57668,19 +57663,19 @@
         <v>84</v>
       </c>
       <c r="L477" t="s" s="2">
+        <v>1648</v>
+      </c>
+      <c r="M477" t="s" s="2">
         <v>1649</v>
       </c>
-      <c r="M477" t="s" s="2">
+      <c r="N477" t="s" s="2">
         <v>1650</v>
       </c>
-      <c r="N477" t="s" s="2">
+      <c r="O477" t="s" s="2">
         <v>1651</v>
       </c>
-      <c r="O477" t="s" s="2">
+      <c r="P477" t="s" s="2">
         <v>1652</v>
-      </c>
-      <c r="P477" t="s" s="2">
-        <v>1653</v>
       </c>
       <c r="Q477" t="s" s="2">
         <v>78</v>
@@ -57708,11 +57703,11 @@
         <v>449</v>
       </c>
       <c r="Z477" t="s" s="2">
+        <v>1653</v>
+      </c>
+      <c r="AA477" t="s" s="2">
         <v>1654</v>
       </c>
-      <c r="AA477" t="s" s="2">
-        <v>1655</v>
-      </c>
       <c r="AB477" t="s" s="2">
         <v>78</v>
       </c>
@@ -57729,7 +57724,7 @@
         <v>78</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>76</v>
@@ -57749,10 +57744,10 @@
         <v>1569</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -57778,10 +57773,10 @@
         <v>254</v>
       </c>
       <c r="M478" t="s" s="2">
+        <v>1656</v>
+      </c>
+      <c r="N478" t="s" s="2">
         <v>1657</v>
-      </c>
-      <c r="N478" t="s" s="2">
-        <v>1658</v>
       </c>
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
@@ -57832,7 +57827,7 @@
         <v>78</v>
       </c>
       <c r="AG478" t="s" s="2">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="AH478" t="s" s="2">
         <v>76</v>
@@ -57852,10 +57847,10 @@
         <v>1569</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -57955,10 +57950,10 @@
         <v>1569</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -58060,10 +58055,10 @@
         <v>1569</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -58167,10 +58162,10 @@
         <v>1569</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -58196,10 +58191,10 @@
         <v>192</v>
       </c>
       <c r="M482" t="s" s="2">
+        <v>1662</v>
+      </c>
+      <c r="N482" t="s" s="2">
         <v>1663</v>
-      </c>
-      <c r="N482" t="s" s="2">
-        <v>1664</v>
       </c>
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
@@ -58250,7 +58245,7 @@
         <v>78</v>
       </c>
       <c r="AG482" t="s" s="2">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="AH482" t="s" s="2">
         <v>76</v>
@@ -58270,10 +58265,10 @@
         <v>1569</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -58299,10 +58294,10 @@
         <v>183</v>
       </c>
       <c r="M483" t="s" s="2">
+        <v>1665</v>
+      </c>
+      <c r="N483" t="s" s="2">
         <v>1666</v>
-      </c>
-      <c r="N483" t="s" s="2">
-        <v>1667</v>
       </c>
       <c r="O483" s="2"/>
       <c r="P483" s="2"/>
@@ -58332,11 +58327,11 @@
         <v>188</v>
       </c>
       <c r="Z483" t="s" s="2">
+        <v>1667</v>
+      </c>
+      <c r="AA483" t="s" s="2">
         <v>1668</v>
       </c>
-      <c r="AA483" t="s" s="2">
-        <v>1669</v>
-      </c>
       <c r="AB483" t="s" s="2">
         <v>78</v>
       </c>
@@ -58353,7 +58348,7 @@
         <v>78</v>
       </c>
       <c r="AG483" t="s" s="2">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="AH483" t="s" s="2">
         <v>76</v>
@@ -58373,10 +58368,10 @@
         <v>1569</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -58399,13 +58394,13 @@
         <v>78</v>
       </c>
       <c r="L484" t="s" s="2">
+        <v>1670</v>
+      </c>
+      <c r="M484" t="s" s="2">
         <v>1671</v>
       </c>
-      <c r="M484" t="s" s="2">
+      <c r="N484" t="s" s="2">
         <v>1672</v>
-      </c>
-      <c r="N484" t="s" s="2">
-        <v>1673</v>
       </c>
       <c r="O484" s="2"/>
       <c r="P484" s="2"/>
@@ -58456,7 +58451,7 @@
         <v>78</v>
       </c>
       <c r="AG484" t="s" s="2">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AH484" t="s" s="2">
         <v>76</v>
@@ -58476,10 +58471,10 @@
         <v>1569</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -58502,13 +58497,13 @@
         <v>78</v>
       </c>
       <c r="L485" t="s" s="2">
+        <v>1674</v>
+      </c>
+      <c r="M485" t="s" s="2">
         <v>1675</v>
       </c>
-      <c r="M485" t="s" s="2">
+      <c r="N485" t="s" s="2">
         <v>1676</v>
-      </c>
-      <c r="N485" t="s" s="2">
-        <v>1677</v>
       </c>
       <c r="O485" s="2"/>
       <c r="P485" s="2"/>
@@ -58559,7 +58554,7 @@
         <v>78</v>
       </c>
       <c r="AG485" t="s" s="2">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="AH485" t="s" s="2">
         <v>76</v>
@@ -58579,10 +58574,10 @@
         <v>1569</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -58608,10 +58603,10 @@
         <v>254</v>
       </c>
       <c r="M486" t="s" s="2">
+        <v>1678</v>
+      </c>
+      <c r="N486" t="s" s="2">
         <v>1679</v>
-      </c>
-      <c r="N486" t="s" s="2">
-        <v>1680</v>
       </c>
       <c r="O486" s="2"/>
       <c r="P486" s="2"/>
@@ -58662,7 +58657,7 @@
         <v>78</v>
       </c>
       <c r="AG486" t="s" s="2">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="AH486" t="s" s="2">
         <v>76</v>
@@ -58682,10 +58677,10 @@
         <v>1569</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -58785,10 +58780,10 @@
         <v>1569</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -58890,10 +58885,10 @@
         <v>1569</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" t="s" s="2">
@@ -58997,10 +58992,10 @@
         <v>1569</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" t="s" s="2">
@@ -59026,10 +59021,10 @@
         <v>139</v>
       </c>
       <c r="M490" t="s" s="2">
+        <v>1684</v>
+      </c>
+      <c r="N490" t="s" s="2">
         <v>1685</v>
-      </c>
-      <c r="N490" t="s" s="2">
-        <v>1686</v>
       </c>
       <c r="O490" s="2"/>
       <c r="P490" s="2"/>
@@ -59080,7 +59075,7 @@
         <v>78</v>
       </c>
       <c r="AG490" t="s" s="2">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="AH490" t="s" s="2">
         <v>76</v>
@@ -59100,10 +59095,10 @@
         <v>1569</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" t="s" s="2">
@@ -59129,10 +59124,10 @@
         <v>192</v>
       </c>
       <c r="M491" t="s" s="2">
+        <v>1687</v>
+      </c>
+      <c r="N491" t="s" s="2">
         <v>1688</v>
-      </c>
-      <c r="N491" t="s" s="2">
-        <v>1689</v>
       </c>
       <c r="O491" s="2"/>
       <c r="P491" s="2"/>
@@ -59183,7 +59178,7 @@
         <v>78</v>
       </c>
       <c r="AG491" t="s" s="2">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="AH491" t="s" s="2">
         <v>76</v>
@@ -59203,10 +59198,10 @@
         <v>1569</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
@@ -59232,10 +59227,10 @@
         <v>183</v>
       </c>
       <c r="M492" t="s" s="2">
+        <v>1690</v>
+      </c>
+      <c r="N492" t="s" s="2">
         <v>1691</v>
-      </c>
-      <c r="N492" t="s" s="2">
-        <v>1692</v>
       </c>
       <c r="O492" s="2"/>
       <c r="P492" s="2"/>
@@ -59265,11 +59260,11 @@
         <v>188</v>
       </c>
       <c r="Z492" t="s" s="2">
+        <v>1692</v>
+      </c>
+      <c r="AA492" t="s" s="2">
         <v>1693</v>
       </c>
-      <c r="AA492" t="s" s="2">
-        <v>1694</v>
-      </c>
       <c r="AB492" t="s" s="2">
         <v>78</v>
       </c>
@@ -59286,7 +59281,7 @@
         <v>78</v>
       </c>
       <c r="AG492" t="s" s="2">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="AH492" t="s" s="2">
         <v>76</v>
@@ -59306,10 +59301,10 @@
         <v>1569</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
@@ -59335,10 +59330,10 @@
         <v>390</v>
       </c>
       <c r="M493" t="s" s="2">
+        <v>1695</v>
+      </c>
+      <c r="N493" t="s" s="2">
         <v>1696</v>
-      </c>
-      <c r="N493" t="s" s="2">
-        <v>1697</v>
       </c>
       <c r="O493" s="2"/>
       <c r="P493" s="2"/>
@@ -59389,7 +59384,7 @@
         <v>78</v>
       </c>
       <c r="AG493" t="s" s="2">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AH493" t="s" s="2">
         <v>76</v>
@@ -59409,10 +59404,10 @@
         <v>1569</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
@@ -59438,10 +59433,10 @@
         <v>390</v>
       </c>
       <c r="M494" t="s" s="2">
+        <v>1698</v>
+      </c>
+      <c r="N494" t="s" s="2">
         <v>1699</v>
-      </c>
-      <c r="N494" t="s" s="2">
-        <v>1700</v>
       </c>
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
@@ -59492,7 +59487,7 @@
         <v>78</v>
       </c>
       <c r="AG494" t="s" s="2">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="AH494" t="s" s="2">
         <v>76</v>
@@ -59512,10 +59507,10 @@
         <v>1569</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -59538,13 +59533,13 @@
         <v>78</v>
       </c>
       <c r="L495" t="s" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M495" t="s" s="2">
         <v>1702</v>
       </c>
-      <c r="M495" t="s" s="2">
+      <c r="N495" t="s" s="2">
         <v>1703</v>
-      </c>
-      <c r="N495" t="s" s="2">
-        <v>1704</v>
       </c>
       <c r="O495" s="2"/>
       <c r="P495" s="2"/>
@@ -59574,11 +59569,11 @@
         <v>188</v>
       </c>
       <c r="Z495" t="s" s="2">
+        <v>1704</v>
+      </c>
+      <c r="AA495" t="s" s="2">
         <v>1705</v>
       </c>
-      <c r="AA495" t="s" s="2">
-        <v>1706</v>
-      </c>
       <c r="AB495" t="s" s="2">
         <v>78</v>
       </c>
@@ -59595,7 +59590,7 @@
         <v>78</v>
       </c>
       <c r="AG495" t="s" s="2">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="AH495" t="s" s="2">
         <v>76</v>
@@ -59615,10 +59610,10 @@
         <v>1569</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -59644,16 +59639,16 @@
         <v>183</v>
       </c>
       <c r="M496" t="s" s="2">
+        <v>1707</v>
+      </c>
+      <c r="N496" t="s" s="2">
         <v>1708</v>
       </c>
-      <c r="N496" t="s" s="2">
+      <c r="O496" t="s" s="2">
         <v>1709</v>
       </c>
-      <c r="O496" t="s" s="2">
+      <c r="P496" t="s" s="2">
         <v>1710</v>
-      </c>
-      <c r="P496" t="s" s="2">
-        <v>1711</v>
       </c>
       <c r="Q496" t="s" s="2">
         <v>78</v>
@@ -59681,11 +59676,11 @@
         <v>449</v>
       </c>
       <c r="Z496" t="s" s="2">
+        <v>1711</v>
+      </c>
+      <c r="AA496" t="s" s="2">
         <v>1712</v>
       </c>
-      <c r="AA496" t="s" s="2">
-        <v>1713</v>
-      </c>
       <c r="AB496" t="s" s="2">
         <v>78</v>
       </c>
@@ -59702,7 +59697,7 @@
         <v>78</v>
       </c>
       <c r="AG496" t="s" s="2">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="AH496" t="s" s="2">
         <v>76</v>
@@ -59722,10 +59717,10 @@
         <v>1569</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
@@ -59754,7 +59749,7 @@
         <v>52</v>
       </c>
       <c r="N497" t="s" s="2">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="O497" s="2"/>
       <c r="P497" s="2"/>
@@ -59805,7 +59800,7 @@
         <v>78</v>
       </c>
       <c r="AG497" t="s" s="2">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="AH497" t="s" s="2">
         <v>76</v>
@@ -59822,7 +59817,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>1345</v>
@@ -59927,7 +59922,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>1351</v>
@@ -60032,7 +60027,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>1352</v>
@@ -60135,7 +60130,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>1353</v>
@@ -60240,7 +60235,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>1354</v>
@@ -60345,7 +60340,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>1355</v>
@@ -60450,7 +60445,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>1356</v>
@@ -60555,7 +60550,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>1357</v>
@@ -60660,7 +60655,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>1358</v>
@@ -60767,7 +60762,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>1359</v>
@@ -60872,7 +60867,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>1363</v>
@@ -60977,7 +60972,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>1369</v>
@@ -61082,7 +61077,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>1375</v>
@@ -61189,7 +61184,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>1383</v>
@@ -61296,7 +61291,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>1390</v>
@@ -61366,7 +61361,7 @@
       </c>
       <c r="Z512" s="2"/>
       <c r="AA512" t="s" s="2">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AB512" t="s" s="2">
         <v>78</v>
@@ -61401,7 +61396,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>1397</v>
@@ -61508,7 +61503,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>1403</v>
@@ -61613,7 +61608,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>1407</v>
@@ -61720,7 +61715,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>1413</v>
@@ -61825,7 +61820,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>1419</v>
@@ -61934,7 +61929,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>1421</v>
@@ -62039,7 +62034,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>1426</v>
@@ -62144,7 +62139,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>1431</v>
@@ -62251,7 +62246,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>1438</v>
@@ -62358,7 +62353,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>1446</v>
@@ -62465,7 +62460,7 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>1454</v>
@@ -62572,7 +62567,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>1459</v>
@@ -62677,7 +62672,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>1463</v>
@@ -62784,7 +62779,7 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>1470</v>
@@ -62889,7 +62884,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>1475</v>
@@ -62994,7 +62989,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>1480</v>
@@ -63101,7 +63096,7 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>1486</v>
@@ -63204,7 +63199,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>1487</v>
@@ -63309,7 +63304,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>1488</v>
@@ -63416,7 +63411,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>1489</v>
@@ -63519,7 +63514,7 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>1493</v>
@@ -63622,7 +63617,7 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>1496</v>
@@ -63729,7 +63724,7 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>1503</v>
@@ -63836,7 +63831,7 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>1510</v>
@@ -63941,7 +63936,7 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>1515</v>
@@ -64044,7 +64039,7 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>1518</v>
@@ -64149,7 +64144,7 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>1523</v>
@@ -64254,7 +64249,7 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>1528</v>
@@ -64361,7 +64356,7 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>1533</v>
@@ -64464,7 +64459,7 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>1534</v>
@@ -64569,7 +64564,7 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>1535</v>
@@ -64676,7 +64671,7 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>1536</v>
@@ -64783,7 +64778,7 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>1542</v>
@@ -64890,7 +64885,7 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>1545</v>
@@ -64997,7 +64992,7 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>1549</v>
@@ -65104,7 +65099,7 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>1550</v>
@@ -65211,7 +65206,7 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>1118</v>
@@ -65314,7 +65309,7 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>1123</v>
@@ -65419,7 +65414,7 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>1124</v>
@@ -65522,7 +65517,7 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>1125</v>
@@ -65627,7 +65622,7 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>1126</v>
@@ -65732,7 +65727,7 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>1127</v>
@@ -65837,7 +65832,7 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>1128</v>
@@ -65942,7 +65937,7 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>1129</v>
@@ -66047,7 +66042,7 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>1133</v>
@@ -66154,7 +66149,7 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>1134</v>
@@ -66257,7 +66252,7 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>1137</v>
@@ -66362,7 +66357,7 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>1143</v>
@@ -66467,7 +66462,7 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B561" t="s" s="2">
         <v>1147</v>
@@ -66570,7 +66565,7 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B562" t="s" s="2">
         <v>1148</v>
@@ -66675,7 +66670,7 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B563" t="s" s="2">
         <v>1149</v>
@@ -66782,7 +66777,7 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B564" t="s" s="2">
         <v>1150</v>
@@ -66885,7 +66880,7 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B565" t="s" s="2">
         <v>1151</v>
@@ -66988,7 +66983,7 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B566" t="s" s="2">
         <v>1154</v>
@@ -67091,7 +67086,7 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B567" t="s" s="2">
         <v>1160</v>
@@ -67194,7 +67189,7 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>1163</v>
@@ -67297,7 +67292,7 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B569" t="s" s="2">
         <v>1164</v>
@@ -67402,7 +67397,7 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B570" t="s" s="2">
         <v>1165</v>
@@ -67509,7 +67504,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B571" t="s" s="2">
         <v>1166</v>
@@ -67612,7 +67607,7 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B572" t="s" s="2">
         <v>1169</v>
@@ -67715,7 +67710,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B573" t="s" s="2">
         <v>1172</v>
@@ -67820,7 +67815,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B574" t="s" s="2">
         <v>1178</v>
@@ -67923,7 +67918,7 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B575" t="s" s="2">
         <v>1183</v>
@@ -68026,7 +68021,7 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B576" t="s" s="2">
         <v>1187</v>
@@ -68131,7 +68126,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B577" t="s" s="2">
         <v>1191</v>
@@ -68234,7 +68229,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B578" t="s" s="2">
         <v>1195</v>
@@ -68337,7 +68332,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B579" t="s" s="2">
         <v>1199</v>
@@ -68440,7 +68435,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B580" t="s" s="2">
         <v>1202</v>
@@ -68543,7 +68538,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B581" t="s" s="2">
         <v>1203</v>
@@ -68648,7 +68643,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B582" t="s" s="2">
         <v>1204</v>
@@ -68755,7 +68750,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>1205</v>
@@ -68860,7 +68855,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B584" t="s" s="2">
         <v>1210</v>
@@ -68963,7 +68958,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B585" t="s" s="2">
         <v>1213</v>
@@ -69066,7 +69061,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B586" t="s" s="2">
         <v>1217</v>
@@ -69169,7 +69164,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B587" t="s" s="2">
         <v>1221</v>
@@ -69274,7 +69269,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B588" t="s" s="2">
         <v>1225</v>
@@ -69379,7 +69374,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B589" t="s" s="2">
         <v>1230</v>
@@ -69484,7 +69479,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B590" t="s" s="2">
         <v>1237</v>
@@ -69589,7 +69584,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B591" t="s" s="2">
         <v>1240</v>
@@ -69692,7 +69687,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>1243</v>
@@ -69795,7 +69790,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>1244</v>
@@ -69900,7 +69895,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>1245</v>
@@ -70007,7 +70002,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>1246</v>
@@ -70112,7 +70107,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>1251</v>
@@ -70215,7 +70210,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>1254</v>
@@ -70318,7 +70313,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>1255</v>
@@ -70423,7 +70418,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B599" t="s" s="2">
         <v>1259</v>
@@ -70528,7 +70523,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B600" t="s" s="2">
         <v>1263</v>
@@ -70631,7 +70626,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B601" t="s" s="2">
         <v>1264</v>
@@ -70736,7 +70731,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B602" t="s" s="2">
         <v>1265</v>
@@ -70843,7 +70838,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B603" t="s" s="2">
         <v>1266</v>
@@ -70946,7 +70941,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B604" t="s" s="2">
         <v>1269</v>
@@ -71049,7 +71044,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B605" t="s" s="2">
         <v>1273</v>
@@ -71152,7 +71147,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B606" t="s" s="2">
         <v>1278</v>
@@ -71255,7 +71250,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B607" t="s" s="2">
         <v>1283</v>
@@ -71362,7 +71357,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B608" t="s" s="2">
         <v>1290</v>
@@ -71465,7 +71460,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B609" t="s" s="2">
         <v>1295</v>
@@ -71568,7 +71563,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B610" t="s" s="2">
         <v>1300</v>
@@ -71671,7 +71666,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>1303</v>
@@ -71774,7 +71769,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>1308</v>
@@ -71879,7 +71874,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>1312</v>
@@ -71982,7 +71977,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>1313</v>
@@ -72087,7 +72082,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B615" t="s" s="2">
         <v>1314</v>
@@ -72194,7 +72189,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B616" t="s" s="2">
         <v>1315</v>
@@ -72297,7 +72292,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B617" t="s" s="2">
         <v>1318</v>
@@ -72402,7 +72397,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B618" t="s" s="2">
         <v>1324</v>
@@ -72507,7 +72502,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B619" t="s" s="2">
         <v>1330</v>
@@ -72610,7 +72605,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B620" t="s" s="2">
         <v>1333</v>
@@ -72713,7 +72708,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B621" t="s" s="2">
         <v>1336</v>

--- a/branches/Specimen-resource-dev--FIG-48/all-profiles.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:23+00:00</t>
+    <t>2023-02-14T14:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
